--- a/변수 정의서.xlsx
+++ b/변수 정의서.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moon\Documents\github\스케일링_불량요인_파악\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C2ED9-0F97-4576-9307-E4FEA60E40B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749E943F-E6E7-4FDA-9D49-E1D594431B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23040" windowHeight="13752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13790" yWindow="8030" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="변수정의서" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>번호</t>
   </si>
@@ -82,148 +82,186 @@
     <t>ROLLING_DATE</t>
   </si>
   <si>
+    <t>제외</t>
+  </si>
+  <si>
+    <t>SCALE</t>
+  </si>
+  <si>
+    <t>Scale불량</t>
+  </si>
+  <si>
+    <t>목표변수</t>
+  </si>
+  <si>
+    <t>SPEC</t>
+  </si>
+  <si>
+    <t>제품 규격</t>
+  </si>
+  <si>
+    <t>설명변수</t>
+  </si>
+  <si>
+    <t>STEEL_KIND</t>
+  </si>
+  <si>
+    <t>강종</t>
+  </si>
+  <si>
+    <t>PT_THICK</t>
+  </si>
+  <si>
+    <t>PT_WIDTH</t>
+  </si>
+  <si>
+    <t>Plate 폭</t>
+  </si>
+  <si>
+    <t>PT_LENGTH</t>
+  </si>
+  <si>
+    <t>Plate 길이</t>
+  </si>
+  <si>
+    <t>PT_WEIGHT</t>
+  </si>
+  <si>
+    <t>Plate 중량</t>
+  </si>
+  <si>
+    <t>FUR_NO</t>
+  </si>
+  <si>
+    <t>가열로 호기</t>
+  </si>
+  <si>
+    <t>FUR_NO_ROW</t>
+  </si>
+  <si>
+    <t>가열로</t>
+  </si>
+  <si>
+    <t>FUR_HZ_TEMP</t>
+  </si>
+  <si>
+    <t>가열로 가열대 온도</t>
+  </si>
+  <si>
+    <t>FUR_HZ_TIME</t>
+  </si>
+  <si>
+    <t>가열로 가열대 시간</t>
+  </si>
+  <si>
+    <t>FUR_SZ_TEMP</t>
+  </si>
+  <si>
+    <t>가열로 균열대 온도</t>
+  </si>
+  <si>
+    <t>FUR_SZ_TIME</t>
+  </si>
+  <si>
+    <t>가열로 균열대 시간</t>
+  </si>
+  <si>
+    <t>FUR_TIME</t>
+  </si>
+  <si>
+    <t>가열로 시간</t>
+  </si>
+  <si>
+    <t>FUR_EXTEMP</t>
+  </si>
+  <si>
+    <t>추출온도</t>
+  </si>
+  <si>
+    <t>ROLLING_TEMP_T5</t>
+  </si>
+  <si>
+    <t>압연온도</t>
+  </si>
+  <si>
+    <t>HSB</t>
+  </si>
+  <si>
+    <t>HSB적용(1-적용,0-미적용)</t>
+  </si>
+  <si>
+    <t>ROLLING_DESCALING</t>
+  </si>
+  <si>
+    <t>압연 중 Descaling 횟수</t>
+  </si>
+  <si>
+    <t>WORK_GR</t>
+  </si>
+  <si>
+    <t>작업조</t>
+  </si>
+  <si>
+    <t>열1</t>
+  </si>
+  <si>
+    <t>열2</t>
+  </si>
+  <si>
+    <t>열3</t>
+  </si>
+  <si>
+    <t>열4</t>
+  </si>
+  <si>
+    <t>열5</t>
+  </si>
+  <si>
+    <t>Plate 두께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>작업시각</t>
-  </si>
-  <si>
-    <t>제외</t>
-  </si>
-  <si>
-    <t>SCALE</t>
-  </si>
-  <si>
-    <t>Scale불량</t>
-  </si>
-  <si>
-    <t>목표변수</t>
-  </si>
-  <si>
-    <t>SPEC</t>
-  </si>
-  <si>
-    <t>제품 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR_SZ_TEMP와 중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집단간 차이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡단간 차이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가열로-&gt;압연공정 열 손실 정도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스케일 발생하는 특정 스펙 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>설명변수</t>
-  </si>
-  <si>
-    <t>STEEL_KIND</t>
-  </si>
-  <si>
-    <t>강종</t>
-  </si>
-  <si>
-    <t>PT_THICK</t>
-  </si>
-  <si>
-    <t>PT_WIDTH</t>
-  </si>
-  <si>
-    <t>Plate 폭</t>
-  </si>
-  <si>
-    <t>PT_LENGTH</t>
-  </si>
-  <si>
-    <t>Plate 길이</t>
-  </si>
-  <si>
-    <t>PT_WEIGHT</t>
-  </si>
-  <si>
-    <t>Plate 중량</t>
-  </si>
-  <si>
-    <t>FUR_NO</t>
-  </si>
-  <si>
-    <t>가열로 호기</t>
-  </si>
-  <si>
-    <t>FUR_NO_ROW</t>
-  </si>
-  <si>
-    <t>가열로</t>
-  </si>
-  <si>
-    <t>FUR_HZ_TEMP</t>
-  </si>
-  <si>
-    <t>가열로 가열대 온도</t>
-  </si>
-  <si>
-    <t>FUR_HZ_TIME</t>
-  </si>
-  <si>
-    <t>가열로 가열대 시간</t>
-  </si>
-  <si>
-    <t>FUR_SZ_TEMP</t>
-  </si>
-  <si>
-    <t>가열로 균열대 온도</t>
-  </si>
-  <si>
-    <t>FUR_SZ_TIME</t>
-  </si>
-  <si>
-    <t>가열로 균열대 시간</t>
-  </si>
-  <si>
-    <t>FUR_TIME</t>
-  </si>
-  <si>
-    <t>가열로 시간</t>
-  </si>
-  <si>
-    <t>FUR_EXTEMP</t>
-  </si>
-  <si>
-    <t>추출온도</t>
-  </si>
-  <si>
-    <t>FUR_SZ_TEMP와 상관관계 1</t>
-  </si>
-  <si>
-    <t>ROLLING_TEMP_T5</t>
-  </si>
-  <si>
-    <t>압연온도</t>
-  </si>
-  <si>
-    <t>HSB</t>
-  </si>
-  <si>
-    <t>HSB적용(1-적용,0-미적용)</t>
-  </si>
-  <si>
-    <t>ROLLING_DESCALING</t>
-  </si>
-  <si>
-    <t>압연 중 Descaling 횟수</t>
-  </si>
-  <si>
-    <t>WORK_GR</t>
-  </si>
-  <si>
-    <t>작업조</t>
-  </si>
-  <si>
-    <t>열1</t>
-  </si>
-  <si>
-    <t>열2</t>
-  </si>
-  <si>
-    <t>열3</t>
-  </si>
-  <si>
-    <t>열4</t>
-  </si>
-  <si>
-    <t>열5</t>
-  </si>
-  <si>
-    <t>Plate 두께</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -247,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,11 +311,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -290,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{122B6A87-FF61-4996-AE1B-54743D8CC510}" name="표3" displayName="표3" ref="A1:N23" totalsRowShown="0">
-  <autoFilter ref="A1:N23" xr:uid="{F7CE8595-136A-4492-A6F1-D29E1FF70154}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{122B6A87-FF61-4996-AE1B-54743D8CC510}" name="표3" displayName="표3" ref="B1:O25" totalsRowShown="0">
+  <autoFilter ref="B1:O25" xr:uid="{F7CE8595-136A-4492-A6F1-D29E1FF70154}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9017F7ED-FF26-4DAE-BCF6-B50F79DDB614}" name="번호"/>
     <tableColumn id="2" xr3:uid="{1FB33DE8-B614-4FAE-9DA7-14F213AD3D09}" name="변수"/>
@@ -575,383 +620,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" customWidth="1"/>
-    <col min="7" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.19921875" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="F2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>25</v>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
